--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Training Time (Hours)</t>
+          <t>Hyperparamter Tuning + Training Time (Hours)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Hyperparamter Tuning + Training Time (Hours)</t>
+          <t>Hyperparameter Tuning + Training Time (Hours)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -529,22 +529,20 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>99.93701091356586</v>
-      </c>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="n">
-        <v>6.114564657211302</v>
+        <v>0.06813931465148927</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5742108797850907</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="6">
@@ -555,80 +553,253 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>261.6001019031272</v>
+        <v>78.33511188833835</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.531545877456666</v>
+        <v>8.747662544250485</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>133.7619914289107</v>
+        <v>82.82698273907835</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.06209182739257812</v>
+        <v>14.2584981918335</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>54.52559992227727</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.02363109588623047</v>
-      </c>
+          <t>Top3 Features</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n">
+        <v>3.604205369949341</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.8623237071860309</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>All Features</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>174.6975277696817</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.05976963043212891</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.9012760241773002</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>All Features PCA</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>50.46690890249036</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.02076506614685059</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.8643384822028207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Individual Features PCA</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>66.26158619126267</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.01908731460571289</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.8811282740094023</v>
+      <c r="C12" s="2" t="n">
+        <v>41.97981022701512</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.03744363784790039</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.8757555406312961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Top3 Features</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="n">
+        <v>0.8488918737407656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n">
+        <v>0.01120138168334961</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.8542646071188718</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>All Features</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>114.034708377862</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.8816781044006347</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.8529214237743452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>All Features PCA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>69.82394939387069</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.8942458629608154</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0.7011417058428475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>64.25132420091323</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.3455846309661865</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0.7897918065815984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Top3 Features</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="n">
+        <v>0.7575554063129617</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,36 +534,36 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="n">
-        <v>0.06813931465148927</v>
+        <v>0.06290173530578611</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.857622565480188</v>
+        <v>0.8502350570852921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>78.33511188833835</v>
+        <v>84.74836102205381</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8.747662544250485</v>
+        <v>0.06813931465148927</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="7">
@@ -574,17 +574,17 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>82.82698273907835</v>
+        <v>78.33511188833835</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>14.2584981918335</v>
+        <v>8.747662544250485</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.9046339825386165</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="8">
@@ -595,13 +595,17 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>82.82698273907835</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>14.2584981918335</v>
+      </c>
       <c r="E8" s="2" t="n">
-        <v>0.8388179986568166</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="9">
@@ -612,36 +616,38 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr"/>
+          <t>Top 3 Features</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>76.54355646232067</v>
+      </c>
       <c r="D9" s="2" t="n">
-        <v>3.604205369949341</v>
+        <v>8.010651826858517</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8623237071860309</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>174.6975277696817</v>
+        <v>16.38364454807474</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.05976963043212891</v>
+        <v>3.604205369949341</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="11">
@@ -652,17 +658,17 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>50.46690890249036</v>
+        <v>174.6975277696817</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.02076506614685059</v>
+        <v>0.05976963043212891</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="12">
@@ -673,17 +679,17 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>41.97981022701512</v>
+        <v>50.46690890249036</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.03744363784790039</v>
+        <v>0.02076506614685059</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="13">
@@ -694,13 +700,17 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>41.97981022701512</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.03744363784790039</v>
+      </c>
       <c r="E13" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="14">
@@ -711,36 +721,38 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
+          <t>Top 3 Features</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>58.52414391657761</v>
+      </c>
       <c r="D14" s="2" t="n">
-        <v>0.01120138168334961</v>
+        <v>0.03405547142028809</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>114.034708377862</v>
+        <v>26.4319336766087</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8816781044006347</v>
+        <v>0.01120138168334961</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="16">
@@ -751,17 +763,17 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>69.82394939387069</v>
+        <v>114.034708377862</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.8942458629608154</v>
+        <v>0.8816781044006347</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="17">
@@ -772,17 +784,17 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>64.25132420091323</v>
+        <v>69.82394939387069</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3455846309661865</v>
+        <v>0.8942458629608154</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
     <row r="18">
@@ -793,13 +805,59 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Top3 Features</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>Individual Features PCA</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>64.25132420091323</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0.3455846309661865</v>
+      </c>
       <c r="E18" s="2" t="n">
+        <v>0.7897918065815984</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Top 3 Features</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>75.37515074970044</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0.2133800983428955</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>0.7575554063129617</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>48.08638621717024</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.6514608860015868</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>0.7844190732034922</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -537,7 +537,9 @@
           <t>Top 3 Features</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
+        <v>272.1866018977299</v>
+      </c>
       <c r="D5" s="2" t="n">
         <v>0.06290173530578611</v>
       </c>

--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -492,17 +492,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>141.1763360212442</v>
+        <v>178.396368621609</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0410611629486084</v>
+        <v>0.001302957534790039</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.890530557421088</v>
+        <v>0.9093351242444594</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>178.396368621609</v>
+        <v>141.1763360212442</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.001302957534790039</v>
+        <v>0.0410611629486084</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.9093351242444594</v>
+        <v>0.890530557421088</v>
       </c>
     </row>
     <row r="5">
@@ -534,17 +534,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>272.1866018977299</v>
+        <v>84.74836102205381</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.06290173530578611</v>
+        <v>0.06813931465148927</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8502350570852921</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="6">
@@ -555,44 +555,44 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>84.74836102205381</v>
+        <v>272.1866018977299</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.06813931465148927</v>
+        <v>0.06290173530578611</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.857622565480188</v>
+        <v>0.8502350570852921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>78.33511188833835</v>
+        <v>114.034708377862</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8.747662544250485</v>
+        <v>0.8816781044006347</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -601,166 +601,166 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>82.82698273907835</v>
+        <v>64.25132420091323</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>14.2584981918335</v>
+        <v>0.3455846309661865</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.9046339825386165</v>
+        <v>0.7897918065815984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>76.54355646232067</v>
+        <v>48.08638621717024</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8.010651826858517</v>
+        <v>0.6514608860015868</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8388179986568166</v>
+        <v>0.7844190732034922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>16.38364454807474</v>
+        <v>75.37515074970044</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.604205369949341</v>
+        <v>0.2133800983428955</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.8623237071860309</v>
+        <v>0.7575554063129617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>174.6975277696817</v>
+        <v>69.82394939387069</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.05976963043212891</v>
+        <v>0.8942458629608154</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>50.46690890249036</v>
+        <v>82.82698273907835</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.02076506614685059</v>
+        <v>14.2584981918335</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>41.97981022701512</v>
+        <v>78.33511188833835</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.03744363784790039</v>
+        <v>8.747662544250485</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>58.52414391657761</v>
+        <v>16.38364454807474</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.03405547142028809</v>
+        <v>3.604205369949341</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>26.4319336766087</v>
+        <v>76.54355646232067</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.01120138168334961</v>
+        <v>8.010651826858517</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -769,97 +769,97 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>114.034708377862</v>
+        <v>174.6975277696817</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.8816781044006347</v>
+        <v>0.05976963043212891</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>69.82394939387069</v>
+        <v>41.97981022701512</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8942458629608154</v>
+        <v>0.03744363784790039</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>64.25132420091323</v>
+        <v>50.46690890249036</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3455846309661865</v>
+        <v>0.02076506614685059</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>75.37515074970044</v>
+        <v>26.4319336766087</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2133800983428955</v>
+        <v>0.01120138168334961</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.7575554063129617</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>48.08638621717024</v>
+        <v>58.52414391657761</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6514608860015868</v>
+        <v>0.03405547142028809</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.7844190732034922</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
+++ b/Output/Classifier Evaluation/Efficiency-Accuracy Table.xlsx
@@ -508,91 +508,91 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>Individual Features PCA</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>141.1763360212442</v>
+        <v>82.82698273907835</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0410611629486084</v>
+        <v>14.2584981918335</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.890530557421088</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>84.74836102205381</v>
+        <v>174.6975277696817</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.06813931465148927</v>
+        <v>0.05976963043212891</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.857622565480188</v>
+        <v>0.9012760241773002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>272.1866018977299</v>
+        <v>78.33511188833835</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.06290173530578611</v>
+        <v>8.747662544250485</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8502350570852921</v>
+        <v>0.8985896574882472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>114.034708377862</v>
+        <v>141.1763360212442</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8816781044006347</v>
+        <v>0.0410611629486084</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8529214237743452</v>
+        <v>0.890530557421088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -601,145 +601,145 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>64.25132420091323</v>
+        <v>41.97981022701512</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3455846309661865</v>
+        <v>0.03744363784790039</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.7897918065815984</v>
+        <v>0.8757555406312961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>48.08638621717024</v>
+        <v>50.46690890249036</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6514608860015868</v>
+        <v>0.02076506614685059</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.7844190732034922</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>75.37515074970044</v>
+        <v>16.38364454807474</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2133800983428955</v>
+        <v>3.604205369949341</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.7575554063129617</v>
+        <v>0.8623237071860309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>69.82394939387069</v>
+        <v>84.74836102205381</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8942458629608154</v>
+        <v>0.06813931465148927</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.7011417058428475</v>
+        <v>0.857622565480188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Individual Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>82.82698273907835</v>
+        <v>26.4319336766087</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>14.2584981918335</v>
+        <v>0.01120138168334961</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.9046339825386165</v>
+        <v>0.8542646071188718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>All Features</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>78.33511188833835</v>
+        <v>114.034708377862</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>8.747662544250485</v>
+        <v>0.8816781044006347</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.8529214237743452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>16.38364454807474</v>
+        <v>272.1866018977299</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3.604205369949341</v>
+        <v>0.06290173530578611</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.8623237071860309</v>
+        <v>0.8502350570852921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>76.54355646232067</v>
+        <v>58.52414391657761</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8.010651826858517</v>
+        <v>0.03405547142028809</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8388179986568166</v>
+        <v>0.8488918737407656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>All Features</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>174.6975277696817</v>
+        <v>76.54355646232067</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.05976963043212891</v>
+        <v>8.010651826858517</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.9012760241773002</v>
+        <v>0.8388179986568166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -790,76 +790,76 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>41.97981022701512</v>
+        <v>64.25132420091323</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.03744363784790039</v>
+        <v>0.3455846309661865</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.8757555406312961</v>
+        <v>0.7897918065815984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>All Features PCA</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>50.46690890249036</v>
+        <v>48.08638621717024</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.02076506614685059</v>
+        <v>0.6514608860015868</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8643384822028207</v>
+        <v>0.7844190732034922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>Top 3 Features</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>26.4319336766087</v>
+        <v>75.37515074970044</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.01120138168334961</v>
+        <v>0.2133800983428955</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.8542646071188718</v>
+        <v>0.7575554063129617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Top 3 Features</t>
+          <t>All Features PCA</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>58.52414391657761</v>
+        <v>69.82394939387069</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.03405547142028809</v>
+        <v>0.8942458629608154</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.8488918737407656</v>
+        <v>0.7011417058428475</v>
       </c>
     </row>
   </sheetData>
